--- a/data/remote_sensing_eval_informal.xlsx
+++ b/data/remote_sensing_eval_informal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TK/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha_000\Desktop\ESA Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="640" windowWidth="13640" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="374">
   <si>
     <t>activity_code</t>
   </si>
@@ -348,6 +348,804 @@
   </si>
   <si>
     <t>07-2014; 08-2015</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0834</t>
+  </si>
+  <si>
+    <t>04ER1000-2015-I-0093</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0662</t>
+  </si>
+  <si>
+    <t>41910-2010-I-0095</t>
+  </si>
+  <si>
+    <t>02ETCC00-2012-I-0003</t>
+  </si>
+  <si>
+    <t>04EN2000-2013-I-0311</t>
+  </si>
+  <si>
+    <t>43910-2010-I-0407</t>
+  </si>
+  <si>
+    <t>42410-2009-I-0535</t>
+  </si>
+  <si>
+    <t>52420-2009-I-1165</t>
+  </si>
+  <si>
+    <t>41460-2008-I-1458</t>
+  </si>
+  <si>
+    <t>04EN2000-2014-I-0116</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0100</t>
+  </si>
+  <si>
+    <t>33410-2008-I-0307</t>
+  </si>
+  <si>
+    <t>52420-2008-I-0937</t>
+  </si>
+  <si>
+    <t>08EVEN00-2013-I-0019</t>
+  </si>
+  <si>
+    <t>04EM1000-2014-I-0249</t>
+  </si>
+  <si>
+    <t>04ET1000-2015-I-0379</t>
+  </si>
+  <si>
+    <t>03E15000-2013-I-1176</t>
+  </si>
+  <si>
+    <t>03E15000-2014-I-0513</t>
+  </si>
+  <si>
+    <t>03E12000-2014-I-0078</t>
+  </si>
+  <si>
+    <t>05E2PA00-2014-I-1189</t>
+  </si>
+  <si>
+    <t>41460-2008-I-1392</t>
+  </si>
+  <si>
+    <t>41420-2010-I-0304</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0412</t>
+  </si>
+  <si>
+    <t>41420-2011-I-0052</t>
+  </si>
+  <si>
+    <t>02ETTXX0-2015-I-0097</t>
+  </si>
+  <si>
+    <t>02ENNM00-2012-I-0063</t>
+  </si>
+  <si>
+    <t>04EN2000-2014-I-0034</t>
+  </si>
+  <si>
+    <t>04ES1000-2012-I-0305</t>
+  </si>
+  <si>
+    <t>04EN2000-2014-I-0452</t>
+  </si>
+  <si>
+    <t>05E2PA00-2013-I-0798</t>
+  </si>
+  <si>
+    <t>31440-2011-I-0341</t>
+  </si>
+  <si>
+    <t>21440-2010-I-0490</t>
+  </si>
+  <si>
+    <t>42410-2010-I-0592</t>
+  </si>
+  <si>
+    <t>52420-2010-I-0663</t>
+  </si>
+  <si>
+    <t>04EL1000-2012-I-2201</t>
+  </si>
+  <si>
+    <t>04EN1000-2013-I-0265</t>
+  </si>
+  <si>
+    <t>42430-2008-I-0277</t>
+  </si>
+  <si>
+    <t>42910-2010-I-0238</t>
+  </si>
+  <si>
+    <t>05E2PA00-2012-I-0155</t>
+  </si>
+  <si>
+    <t>03E14000-2014-I-0617</t>
+  </si>
+  <si>
+    <t>05E2PA00-2013-I-0381</t>
+  </si>
+  <si>
+    <t>42430-2011-I-0533</t>
+  </si>
+  <si>
+    <t>02EKOK00-2013-I-0710</t>
+  </si>
+  <si>
+    <t>04ET1000-2013-I-0091</t>
+  </si>
+  <si>
+    <t>41460-2008-I-0956</t>
+  </si>
+  <si>
+    <t>05E2PA00-2014-I-0295</t>
+  </si>
+  <si>
+    <t>05E1NY00-2015-I-0390</t>
+  </si>
+  <si>
+    <t>04ET1000-2012-I-0240</t>
+  </si>
+  <si>
+    <t>04EM1000-2012-I-0814</t>
+  </si>
+  <si>
+    <t>10-2008; 04-2010; 09-2010; 10-2011</t>
+  </si>
+  <si>
+    <t>02-2014; 09-2015</t>
+  </si>
+  <si>
+    <t>10-2008; 09-2010; 09-2012</t>
+  </si>
+  <si>
+    <t>Pre-consultation photos too grainy</t>
+  </si>
+  <si>
+    <t>01-2008; 04-2010; 12-2010… 02-2016</t>
+  </si>
+  <si>
+    <t>01-2011; 05-2012; 01-2014… 01-2016</t>
+  </si>
+  <si>
+    <t>01-2016 picture dated 01-2014</t>
+  </si>
+  <si>
+    <t>10-2012; 10-2014</t>
+  </si>
+  <si>
+    <t>09-2007; 09-2010; 10-2011; 07-2015</t>
+  </si>
+  <si>
+    <t>Bridge replacement. All pics before 10-2011 too grainy to be sure.</t>
+  </si>
+  <si>
+    <t>10-2006; 10-2007; 03-2011; 06-2011; 12-2012</t>
+  </si>
+  <si>
+    <t>10-2008; 07-2010; 09-2010; 08-2012… 09-2015</t>
+  </si>
+  <si>
+    <t>07-2008; 09-2009; 12-2010… 05-2014</t>
+  </si>
+  <si>
+    <t>05-2012; 04-2014; 07-2014; 10-2015</t>
+  </si>
+  <si>
+    <t>10-2008; 08-2010; 09-2010; 05-2012… 09-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-2007; 08-2009; </t>
+  </si>
+  <si>
+    <t>09-2005; 10-2008; 04-2010; 09-2010; 10-2011</t>
+  </si>
+  <si>
+    <t>06-2009; 12-2013; 03-2014</t>
+  </si>
+  <si>
+    <t>No bridge?</t>
+  </si>
+  <si>
+    <t>01-2014; 04-2014; 12-2015</t>
+  </si>
+  <si>
+    <t>10-2011; 10-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pics after </t>
+  </si>
+  <si>
+    <t>04-2012; 06-2014; 09-2015</t>
+  </si>
+  <si>
+    <t>03-2012; 03-2014</t>
+  </si>
+  <si>
+    <t>04-2013; 09-2015</t>
+  </si>
+  <si>
+    <t>06-2007; 12-2007; 04-2008; 09-2009… 08-2015</t>
+  </si>
+  <si>
+    <t>03-2010; 12-2010; 03-2011; 03-2013… 01-2016</t>
+  </si>
+  <si>
+    <t>10-2008; 10-2009; 09-2010; 10-2011; 09-2013</t>
+  </si>
+  <si>
+    <t>01-2009; 12-2010; 03-2011; 01-2014</t>
+  </si>
+  <si>
+    <t>11-2014; 02-2015; 07-2015, 01-2016</t>
+  </si>
+  <si>
+    <t>10-2011; 09-2012; 11-2013; 03-2015</t>
+  </si>
+  <si>
+    <t>04-2013; 11-2014; 05-2015</t>
+  </si>
+  <si>
+    <t>06-2011; 11-2012; 11-2014</t>
+  </si>
+  <si>
+    <t>08-2010; 08-2012; 10-2013; 09-2014; 10-2015</t>
+  </si>
+  <si>
+    <t>Bridge replaced between 2012-2013, but because of tree cover, can't tell what the bridge looked like between 2010-2012.</t>
+  </si>
+  <si>
+    <t>05-2008; 09-2010; 03-2012; 10-2013</t>
+  </si>
+  <si>
+    <t>04-2010; 03-2011; 06-2011… 10-2015</t>
+  </si>
+  <si>
+    <t>Don't know what "special permit" would cover, but there was a partial pier removal between 2010-2011. There's also development right next to the coordinates that ends 2014.</t>
+  </si>
+  <si>
+    <t>10-2008; 07-2010</t>
+  </si>
+  <si>
+    <t>01-2012; 03-2013; 01-2015; 03-2016</t>
+  </si>
+  <si>
+    <t>03-2013; 10-2015</t>
+  </si>
+  <si>
+    <t>09-2007; 09-2008; 08-2010</t>
+  </si>
+  <si>
+    <t>10-2009; 04-2013; 10-2015</t>
+  </si>
+  <si>
+    <t>09-2010; 08-2012; 09-2013</t>
+  </si>
+  <si>
+    <t>Most recent photo is 2013</t>
+  </si>
+  <si>
+    <t>08-2012; 04-2014; 06-2014; 09-2015</t>
+  </si>
+  <si>
+    <t>08-2010; 08-2011; 10-2013; 04-2014</t>
+  </si>
+  <si>
+    <t>03-2012; 06-2013; 03-2016</t>
+  </si>
+  <si>
+    <t>11-2012; 09-2014</t>
+  </si>
+  <si>
+    <t>Not sure if it's the small road branching off from the highway</t>
+  </si>
+  <si>
+    <t>12-2007; 09-2009</t>
+  </si>
+  <si>
+    <t>05-2014; 09-2015</t>
+  </si>
+  <si>
+    <t>08-2010; 10-2015</t>
+  </si>
+  <si>
+    <t>09-2010; 11-2012; 11-2014</t>
+  </si>
+  <si>
+    <t>52420-2008-I-1275</t>
+  </si>
+  <si>
+    <t>84320-2009-I-0399</t>
+  </si>
+  <si>
+    <t>21450-2010-I-0171</t>
+  </si>
+  <si>
+    <t>51411-2008-I-0494</t>
+  </si>
+  <si>
+    <t>52420-2011-I-0750</t>
+  </si>
+  <si>
+    <t>52421-2008-I-0561</t>
+  </si>
+  <si>
+    <t>41410-2008-I-0451</t>
+  </si>
+  <si>
+    <t>41910-2010-I-0140</t>
+  </si>
+  <si>
+    <t>41420-2008-I-0611</t>
+  </si>
+  <si>
+    <t>52420-2010-I-0737</t>
+  </si>
+  <si>
+    <t>03E12000-2012-I-0142</t>
+  </si>
+  <si>
+    <t>05E2PA00-2013-I-0143</t>
+  </si>
+  <si>
+    <t>42410-2011-I-0094</t>
+  </si>
+  <si>
+    <t>02ETAR00-2015-I-0145</t>
+  </si>
+  <si>
+    <t>42410-2008-I-0458</t>
+  </si>
+  <si>
+    <t>42430-2011-I-0733</t>
+  </si>
+  <si>
+    <t>42430-2011-I-0020</t>
+  </si>
+  <si>
+    <t>04EM1000-2012-I-0414</t>
+  </si>
+  <si>
+    <t>04EM1000-2015-I-0145</t>
+  </si>
+  <si>
+    <t>52420-2008-I-0811</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0073</t>
+  </si>
+  <si>
+    <t>43410-2008-I-0542</t>
+  </si>
+  <si>
+    <t>31440-2011-I-0565</t>
+  </si>
+  <si>
+    <t>04EM1000-2013-I-0125</t>
+  </si>
+  <si>
+    <t>31440-2011-I-0226</t>
+  </si>
+  <si>
+    <t>08ECAR00-2015-I-0390</t>
+  </si>
+  <si>
+    <t>31440-2011-I-0010</t>
+  </si>
+  <si>
+    <t>52420-2008-I-0421</t>
+  </si>
+  <si>
+    <t>04ET1000-2012-I-0642</t>
+  </si>
+  <si>
+    <t>05E2PA00-2012-I-0566</t>
+  </si>
+  <si>
+    <t>03E15000-2013-I-0953</t>
+  </si>
+  <si>
+    <t>05E2NJ00-2014-I-0018</t>
+  </si>
+  <si>
+    <t>22410-2010-I-0214</t>
+  </si>
+  <si>
+    <t>52420-2008-I-1620</t>
+  </si>
+  <si>
+    <t>41410-2010-I-0077</t>
+  </si>
+  <si>
+    <t>51411-2008-I-0346</t>
+  </si>
+  <si>
+    <t>43910-2009-I-1040</t>
+  </si>
+  <si>
+    <t>41460-2009-I-0375</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0616</t>
+  </si>
+  <si>
+    <t>41410-2009-I-0006</t>
+  </si>
+  <si>
+    <t>41910-2010-I-0446</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0628</t>
+  </si>
+  <si>
+    <t>43410-2008-I-0603</t>
+  </si>
+  <si>
+    <t>04EM1000-2013-I-0651</t>
+  </si>
+  <si>
+    <t>41420-2011-I-0219</t>
+  </si>
+  <si>
+    <t>04EM1000-2014-I-0820</t>
+  </si>
+  <si>
+    <t>01EIFW00-2012-I-0163</t>
+  </si>
+  <si>
+    <t>02ETAR00-2012-I-0124</t>
+  </si>
+  <si>
+    <t>05E2PA00-2013-I-1107</t>
+  </si>
+  <si>
+    <t>03E15000-2012-I-0358</t>
+  </si>
+  <si>
+    <t>02EKOK00-2012-I-0991</t>
+  </si>
+  <si>
+    <t>04EN2000-2014-I-0134</t>
+  </si>
+  <si>
+    <t>05E2PA00-2012-I-0548</t>
+  </si>
+  <si>
+    <t>01EIFW00-2013-I-0235</t>
+  </si>
+  <si>
+    <t>04ES1000-2012-I-0094</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0979</t>
+  </si>
+  <si>
+    <t>42430-2011-I-0540</t>
+  </si>
+  <si>
+    <t>52421-2009-I-0402</t>
+  </si>
+  <si>
+    <t>52420-2009-I-1259</t>
+  </si>
+  <si>
+    <t>64413-2009-I-0220</t>
+  </si>
+  <si>
+    <t>52420-2008-I-0889</t>
+  </si>
+  <si>
+    <t>42431-2008-I-0304</t>
+  </si>
+  <si>
+    <t>05E2PA00-2012-I-1123</t>
+  </si>
+  <si>
+    <t>05E2PA00-2013-I-0992</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0018</t>
+  </si>
+  <si>
+    <t>42420-2009-I-0516</t>
+  </si>
+  <si>
+    <t>43910-2011-I-0776</t>
+  </si>
+  <si>
+    <t>31440-2009-I-0087</t>
+  </si>
+  <si>
+    <t>52420-2008-I-1522</t>
+  </si>
+  <si>
+    <t>52420-2008-I-0478</t>
+  </si>
+  <si>
+    <t>43910-2010-I-0129</t>
+  </si>
+  <si>
+    <t>21410-2010-I-0369</t>
+  </si>
+  <si>
+    <t>04EM1000-2014-I-0401</t>
+  </si>
+  <si>
+    <t>41460-2009-I-0262</t>
+  </si>
+  <si>
+    <t>05E2PA00-2012-I-1120</t>
+  </si>
+  <si>
+    <t>81420-2010-I-0838</t>
+  </si>
+  <si>
+    <t>05E2PA00-2012-I-1217</t>
+  </si>
+  <si>
+    <t>52420-2009-I-0804</t>
+  </si>
+  <si>
+    <t>52420-2011-I-0776</t>
+  </si>
+  <si>
+    <t>05E2PA00-2013-I-0556</t>
+  </si>
+  <si>
+    <t>81420-2010-I-0591</t>
+  </si>
+  <si>
+    <t>04ET1000-2014-I-0007</t>
+  </si>
+  <si>
+    <t>10-2006; 10-2008; 07-2010; 09-2010; 08-2012… 09-2015</t>
+  </si>
+  <si>
+    <t>10-2006; 09-2010</t>
+  </si>
+  <si>
+    <t>10-2008; 10-2011</t>
+  </si>
+  <si>
+    <t>04-2007; 10-2008; 08-2010… 10-2015</t>
+  </si>
+  <si>
+    <t>09-2010; 09-2012; 04-2013; 09-2015</t>
+  </si>
+  <si>
+    <t>08-2006; 08-2008; 12-2010… 06-2015</t>
+  </si>
+  <si>
+    <t>02-2008;04-2012; 12-2012… 02-2015</t>
+  </si>
+  <si>
+    <t>Development but no comm tower</t>
+  </si>
+  <si>
+    <t>02-2008; 12-2010; 03-2011… 02-2016</t>
+  </si>
+  <si>
+    <t>11-2007; 03-2009; 12-2010… 01-2016</t>
+  </si>
+  <si>
+    <t>10-2008; 09-2010; 05-2013; 09-2015</t>
+  </si>
+  <si>
+    <t>09-2011; 09-2014</t>
+  </si>
+  <si>
+    <t>08-2012; 09-2013</t>
+  </si>
+  <si>
+    <t>04-2010; 03-2011; 06-2011</t>
+  </si>
+  <si>
+    <t>Pier then removed in 12-2012?</t>
+  </si>
+  <si>
+    <t>10-2013; 03-2015; 12-2015</t>
+  </si>
+  <si>
+    <t>10-2006; 06-2011… 01-2015</t>
+  </si>
+  <si>
+    <t>10-2010; 04-2012; 11-2013…. 10-2014</t>
+  </si>
+  <si>
+    <t>08-2010; 10-2013</t>
+  </si>
+  <si>
+    <t>09-2010; 01-2013</t>
+  </si>
+  <si>
+    <t>11-2014; 01-2015; 08-2015</t>
+  </si>
+  <si>
+    <t>Development that's been going on since before 2007 - no sign of change</t>
+  </si>
+  <si>
+    <t>03-2007; 10-2008; 09-2010; 08-2012; 09-2013</t>
+  </si>
+  <si>
+    <t>10-2006; 10-2008; 09-2010; 04-2012; 09-2013; 10-2015</t>
+  </si>
+  <si>
+    <t>02-2008; 04-2009; 05-2010… 01-2015</t>
+  </si>
+  <si>
+    <t>Some small trail was made in 2012, followed by much larger scale development (and absence of trail) a year later?</t>
+  </si>
+  <si>
+    <t>11-2011; 11-2013</t>
+  </si>
+  <si>
+    <t>08-2010; 08-2012; 10-2013… 10-2015</t>
+  </si>
+  <si>
+    <t>08-2010; 11-2013; 09-2014</t>
+  </si>
+  <si>
+    <t>10-2006; 10-2008</t>
+  </si>
+  <si>
+    <t>08-2011; 10-2013; 04-2014</t>
+  </si>
+  <si>
+    <t>05-2012; 07-2015</t>
+  </si>
+  <si>
+    <t>Road was repaved for 9.44 miles.</t>
+  </si>
+  <si>
+    <t>11-2009; 03-2010; 09-2010; 03-2011</t>
+  </si>
+  <si>
+    <t>06-2007; 10-2008; 07-2010… 09-2015</t>
+  </si>
+  <si>
+    <t>02-2008; 04-2010; 12-2010; 01-2012; 11-2013; 01-2014; 02-2015</t>
+  </si>
+  <si>
+    <t>04-2007; 10-2008; 04-2011; 09-2011; 11-2013</t>
+  </si>
+  <si>
+    <t>09-2008; 04-2010; 08-2010; 09-2010… 04-2014</t>
+  </si>
+  <si>
+    <t>02-2009; 09-2009; 12-2010… 10-2015</t>
+  </si>
+  <si>
+    <t>10-2008; 09-2010; 06-2011… 10-2015</t>
+  </si>
+  <si>
+    <t>11-2007; 12-2010; 12-2012; 03-2013</t>
+  </si>
+  <si>
+    <t>01-2008; 12-2010; 01-2012… 02-2016</t>
+  </si>
+  <si>
+    <t>10-2008; 09-2009; 09-2010… 04-2016</t>
+  </si>
+  <si>
+    <t>06-2006; 09-2011; 11-2012</t>
+  </si>
+  <si>
+    <t>03-2013; 01-2015</t>
+  </si>
+  <si>
+    <t>03-2011; 01-2014; 02-2016</t>
+  </si>
+  <si>
+    <t>08-2009; 09-2012; 07-2013; 07-2014</t>
+  </si>
+  <si>
+    <t>Prior pictures all too grainy</t>
+  </si>
+  <si>
+    <t>03-2011; 04-2012; 08-2012; 10-2013</t>
+  </si>
+  <si>
+    <t>11-2011; 04-2012; 06-2014; 07-2015; 09-2015</t>
+  </si>
+  <si>
+    <t>02-2012; 02-2014</t>
+  </si>
+  <si>
+    <t>01-2013; 10-2014</t>
+  </si>
+  <si>
+    <t>Pumps already installed</t>
+  </si>
+  <si>
+    <t>09-2012; 07-2013; 07-2014</t>
+  </si>
+  <si>
+    <t>Not sure what to look for here</t>
+  </si>
+  <si>
+    <t>10-2008; 08-2009; 04-2010; 09-2010; 06-2011; 10-2011</t>
+  </si>
+  <si>
+    <t>08-2010; 09-2013; 07-2015</t>
+  </si>
+  <si>
+    <t>08-2008; 12-2010; 09-2013</t>
+  </si>
+  <si>
+    <t>04-2007; 08-2010… 03-2015</t>
+  </si>
+  <si>
+    <t>10-2008; 08-2010; 09-2010; 05-2012; 04-2014</t>
+  </si>
+  <si>
+    <t>11-2007; 12-2010… 12-2015</t>
+  </si>
+  <si>
+    <t>09-2010; 09-2013; 10-2015</t>
+  </si>
+  <si>
+    <t>10-2008; 08-2010; 09-2010… 04-2014</t>
+  </si>
+  <si>
+    <t>Too much tree cover to see any pipes</t>
+  </si>
+  <si>
+    <t>07-2010; 02-2013</t>
+  </si>
+  <si>
+    <t>09-2010; 11-2013</t>
+  </si>
+  <si>
+    <t>10-2008; 05-2010</t>
+  </si>
+  <si>
+    <t>10-2006; 10-2008; 09-2010… 10-2015</t>
+  </si>
+  <si>
+    <t>10-2006; 10-2008; 09-2010; 10-2011; 10-2015</t>
+  </si>
+  <si>
+    <t>10-2009; 09-2010; 10-2012; 07-2015</t>
+  </si>
+  <si>
+    <t>01-2009; 01-2011; 05-2012… 01-2016</t>
+  </si>
+  <si>
+    <t>11-2012; 12-2015</t>
+  </si>
+  <si>
+    <t>12-2007; 09-2009; 12-2010… 04-2016</t>
+  </si>
+  <si>
+    <t>Trees have been cleared, but nothing built since 2010</t>
+  </si>
+  <si>
+    <t>09-2010; 09-2012</t>
+  </si>
+  <si>
+    <t>06-2009; 04-2011; 08-2012</t>
+  </si>
+  <si>
+    <t>09-2010; 10-2011</t>
+  </si>
+  <si>
+    <t>08-2012; 09-2015</t>
+  </si>
+  <si>
+    <t>03-2010; 07-2010; 09-2010; 07-2011… 03-2015</t>
+  </si>
+  <si>
+    <t>08-2011; 11-2013; 04-2014; 09-2015</t>
   </si>
 </sst>
 </file>
@@ -357,13 +1155,21 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,10 +1192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,6 +1208,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,24 +1479,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="10" max="11" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.875" style="5"/>
+    <col min="7" max="8" width="10.875" style="2"/>
+    <col min="10" max="11" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -718,11 +1531,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2">
@@ -750,11 +1563,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3">
@@ -770,11 +1583,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4">
@@ -790,11 +1603,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5">
@@ -813,11 +1626,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6">
@@ -848,11 +1661,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7">
@@ -868,11 +1681,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8">
@@ -888,11 +1701,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9">
@@ -908,11 +1721,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10">
@@ -928,11 +1741,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11">
@@ -951,11 +1764,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12">
@@ -983,11 +1796,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="C13">
@@ -1003,11 +1816,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1035,11 +1848,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15">
@@ -1055,11 +1868,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16">
@@ -1075,11 +1888,11 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>0</v>
       </c>
       <c r="C17">
@@ -1095,11 +1908,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
       <c r="C18">
@@ -1115,11 +1928,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="C19">
@@ -1135,11 +1948,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>0.5</v>
       </c>
       <c r="C20">
@@ -1170,11 +1983,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21">
@@ -1190,11 +2003,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22">
@@ -1225,11 +2038,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23">
@@ -1257,11 +2070,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24">
@@ -1292,11 +2105,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>0</v>
       </c>
       <c r="C25">
@@ -1312,11 +2125,11 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>0</v>
       </c>
       <c r="C26">
@@ -1332,11 +2145,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27">
@@ -1352,11 +2165,11 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="C28">
@@ -1372,11 +2185,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>1</v>
       </c>
       <c r="C29">
@@ -1407,11 +2220,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>0.5</v>
       </c>
       <c r="C30">
@@ -1439,11 +2252,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31">
@@ -1459,11 +2272,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>0</v>
       </c>
       <c r="C32">
@@ -1479,11 +2292,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33">
@@ -1514,11 +2327,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>0</v>
       </c>
       <c r="C34">
@@ -1534,11 +2347,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>0</v>
       </c>
       <c r="C35">
@@ -1554,11 +2367,11 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>0</v>
       </c>
       <c r="C36">
@@ -1574,11 +2387,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37">
@@ -1606,11 +2419,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38">
@@ -1641,11 +2454,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39">
@@ -1676,11 +2489,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40">
@@ -1711,11 +2524,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
       <c r="C41">
@@ -1731,11 +2544,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42">
@@ -1766,11 +2579,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43">
@@ -1801,11 +2614,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>0</v>
       </c>
       <c r="C44">
@@ -1821,11 +2634,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>0</v>
       </c>
       <c r="C45">
@@ -1841,11 +2654,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>0</v>
       </c>
       <c r="C46">
@@ -1861,7 +2674,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1872,11 +2685,11 @@
         <v>-145.46674999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48">
@@ -1904,11 +2717,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>0.5</v>
       </c>
       <c r="C49">
@@ -1939,11 +2752,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>0</v>
       </c>
       <c r="C50">
@@ -1959,11 +2772,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>0</v>
       </c>
       <c r="C51">
@@ -1977,6 +2790,3519 @@
       </c>
       <c r="K51" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>39.888829999999999</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-75.511600000000001</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>40269</v>
+      </c>
+      <c r="H52" s="2">
+        <v>40817</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>34.719110000000001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-92.289249999999996</v>
+      </c>
+      <c r="J53" s="2">
+        <v>34394</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>40.843389999999999</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-76.803669999999997</v>
+      </c>
+      <c r="J54" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>27.760190000000001</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-82.766379999999998</v>
+      </c>
+      <c r="J55" s="2">
+        <v>34700</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>26.171869999999998</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-97.700950000000006</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>42217</v>
+      </c>
+      <c r="I56">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="2">
+        <v>18598</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>34.718829999999997</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-78.004289999999997</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>0.42</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41913</v>
+      </c>
+      <c r="H57" s="2">
+        <v>41913</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>34001</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="4">
+        <v>31.969100000000001</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-88.545019999999994</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="G58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="H58" s="2">
+        <v>40422</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>35096</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>34.057920000000003</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-78.892319999999998</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>41244</v>
+      </c>
+      <c r="H59" s="2">
+        <v>41244</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>34335</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40.774819999999998</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-79.628540000000001</v>
+      </c>
+      <c r="J60" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>30.492519999999999</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-82.198409999999996</v>
+      </c>
+      <c r="J61" s="2">
+        <v>35827</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>34.717840000000002</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-76.672349999999994</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>0.15</v>
+      </c>
+      <c r="G62" s="2">
+        <v>42278</v>
+      </c>
+      <c r="H62" s="2">
+        <v>42278</v>
+      </c>
+      <c r="J62" s="2">
+        <v>34029</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>40.38402</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-75.893569999999997</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="G63" s="2">
+        <v>41365</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>33695</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>36.767000000000003</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-90.464910000000003</v>
+      </c>
+      <c r="J64" s="2">
+        <v>37956</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>40.343780000000002</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-75.106499999999997</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>40817</v>
+      </c>
+      <c r="H65" s="2">
+        <v>40817</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>34.760190000000001</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-115.27404</v>
+      </c>
+      <c r="J66" s="2">
+        <v>34943</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>32.147849999999998</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-90.114909999999995</v>
+      </c>
+      <c r="J67" s="2">
+        <v>35065</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>35.710070000000002</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-84.84348</v>
+      </c>
+      <c r="J68" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4">
+        <v>41.41545</v>
+      </c>
+      <c r="D69" s="4">
+        <v>-81.344369999999998</v>
+      </c>
+      <c r="J69" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>41.185679999999998</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-81.429990000000004</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>1.7</v>
+      </c>
+      <c r="G70" s="2">
+        <v>41791</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>38.133450000000003</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-87.370750000000001</v>
+      </c>
+      <c r="J71" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="4">
+        <v>39.869280000000003</v>
+      </c>
+      <c r="D72" s="4">
+        <v>-75.926439999999999</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>0.25</v>
+      </c>
+      <c r="G72" s="2">
+        <v>42248</v>
+      </c>
+      <c r="I72">
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="2">
+        <v>33695</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>34.052120000000002</v>
+      </c>
+      <c r="D73" s="4">
+        <v>-84.672560000000004</v>
+      </c>
+      <c r="J73" s="2">
+        <v>34001</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>25.97363</v>
+      </c>
+      <c r="D74" s="4">
+        <v>-80.270129999999995</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="G74" s="2">
+        <v>40513</v>
+      </c>
+      <c r="H74" s="2">
+        <v>42370</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>34335</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
+        <v>40.043039999999998</v>
+      </c>
+      <c r="D75" s="4">
+        <v>-80.508459999999999</v>
+      </c>
+      <c r="J75" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>26.824660000000002</v>
+      </c>
+      <c r="D76" s="4">
+        <v>-80.658550000000005</v>
+      </c>
+      <c r="J76" s="2">
+        <v>35096</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>25.89622</v>
+      </c>
+      <c r="D77" s="4">
+        <v>-97.449709999999996</v>
+      </c>
+      <c r="J77" s="2">
+        <v>22981</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>36.965000000000003</v>
+      </c>
+      <c r="D78" s="4">
+        <v>-108.19237</v>
+      </c>
+      <c r="J78" s="2">
+        <v>35704</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>35.941420000000001</v>
+      </c>
+      <c r="D79" s="4">
+        <v>-77.777760000000001</v>
+      </c>
+      <c r="J79" s="2">
+        <v>34001</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>32.504980000000003</v>
+      </c>
+      <c r="D80" s="4">
+        <v>-80.959980000000002</v>
+      </c>
+      <c r="J80" s="2">
+        <v>34335</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>35.914850000000001</v>
+      </c>
+      <c r="D81" s="4">
+        <v>-78.824269999999999</v>
+      </c>
+      <c r="J81" s="2">
+        <v>34029</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>40.450789999999998</v>
+      </c>
+      <c r="D82" s="4">
+        <v>-78.562209999999993</v>
+      </c>
+      <c r="J82" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>39.719119999999997</v>
+      </c>
+      <c r="D83" s="4">
+        <v>-86.378619999999998</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>0.22</v>
+      </c>
+      <c r="G83" s="2">
+        <v>41122</v>
+      </c>
+      <c r="H83" s="2">
+        <v>41548</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2">
+        <v>35886</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C84" s="4">
+        <v>35.2485</v>
+      </c>
+      <c r="D84" s="4">
+        <v>-94.530779999999993</v>
+      </c>
+      <c r="E84" s="4">
+        <v>5</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="G84" s="2">
+        <v>40969</v>
+      </c>
+      <c r="H84" s="2">
+        <v>41548</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2">
+        <v>34731</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L84" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>33.651829999999997</v>
+      </c>
+      <c r="D85" s="4">
+        <v>-79.094840000000005</v>
+      </c>
+      <c r="G85" s="2">
+        <v>40269</v>
+      </c>
+      <c r="H85" s="2">
+        <v>40603</v>
+      </c>
+      <c r="J85" s="2">
+        <v>34366</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>40.823320000000002</v>
+      </c>
+      <c r="D86" s="4">
+        <v>-79.538650000000004</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>40360</v>
+      </c>
+      <c r="H86" s="2">
+        <v>41122</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>32.760930000000002</v>
+      </c>
+      <c r="D87" s="4">
+        <v>-91.916510000000002</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="G87" s="2">
+        <v>41334</v>
+      </c>
+      <c r="H87" s="2">
+        <v>42005</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>35796</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>35.499470000000002</v>
+      </c>
+      <c r="D88" s="4">
+        <v>-83.304469999999995</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>0.02</v>
+      </c>
+      <c r="G88" s="2">
+        <v>42278</v>
+      </c>
+      <c r="H88" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>35.432929999999999</v>
+      </c>
+      <c r="D89" s="4">
+        <v>-85.720420000000004</v>
+      </c>
+      <c r="E89" s="4">
+        <v>3</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="G89" s="2">
+        <v>39692</v>
+      </c>
+      <c r="H89" s="2">
+        <v>40391</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>35490</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>35.094819999999999</v>
+      </c>
+      <c r="D90" s="4">
+        <v>-84.015690000000006</v>
+      </c>
+      <c r="J90" s="2">
+        <v>34029</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>39.759010000000004</v>
+      </c>
+      <c r="D91" s="4">
+        <v>-76.756420000000006</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G91" s="2">
+        <v>41122</v>
+      </c>
+      <c r="H91" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>37.377839999999999</v>
+      </c>
+      <c r="D92" s="4">
+        <v>-93.845529999999997</v>
+      </c>
+      <c r="J92" s="2">
+        <v>35125</v>
+      </c>
+      <c r="K92" s="2">
+        <v>41579</v>
+      </c>
+      <c r="L92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>40.652230000000003</v>
+      </c>
+      <c r="D93" s="4">
+        <v>-79.49973</v>
+      </c>
+      <c r="J93" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>35.223269999999999</v>
+      </c>
+      <c r="D94" s="4">
+        <v>-89.736890000000002</v>
+      </c>
+      <c r="J94" s="2">
+        <v>35431</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>36.423360000000002</v>
+      </c>
+      <c r="D95" s="4">
+        <v>-95.547709999999995</v>
+      </c>
+      <c r="J95" s="2">
+        <v>34731</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="4">
+        <v>35.882651000000003</v>
+      </c>
+      <c r="D96" s="4">
+        <v>-85.799589999999995</v>
+      </c>
+      <c r="E96" s="4">
+        <v>4</v>
+      </c>
+      <c r="G96" s="2">
+        <v>41883</v>
+      </c>
+      <c r="H96" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
+        <v>35490</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4">
+        <v>31.092199999999998</v>
+      </c>
+      <c r="D97" s="4">
+        <v>-84.678359999999998</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3</v>
+      </c>
+      <c r="F97" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>40057</v>
+      </c>
+      <c r="H97" s="2">
+        <v>40057</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
+        <v>34029</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>40.482930000000003</v>
+      </c>
+      <c r="D98" s="4">
+        <v>-76.267120000000006</v>
+      </c>
+      <c r="J98" s="2">
+        <v>33695</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4">
+        <v>44.430779999999999</v>
+      </c>
+      <c r="D99" s="4">
+        <v>-75.794489999999996</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>0.01</v>
+      </c>
+      <c r="G99" s="2">
+        <v>42248</v>
+      </c>
+      <c r="H99" s="2">
+        <v>42248</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2">
+        <v>34455</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4">
+        <v>35.487909999999999</v>
+      </c>
+      <c r="D100" s="4">
+        <v>-84.811160000000001</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>23.78</v>
+      </c>
+      <c r="G100" s="2">
+        <v>42278</v>
+      </c>
+      <c r="H100" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>31.268910000000002</v>
+      </c>
+      <c r="D101" s="4">
+        <v>-90.467619999999997</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G101" s="2">
+        <v>41944</v>
+      </c>
+      <c r="H101" s="2">
+        <v>41944</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2">
+        <v>35125</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="5">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>40.128039999999999</v>
+      </c>
+      <c r="D102">
+        <v>-79.777600000000007</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>2.21</v>
+      </c>
+      <c r="G102" s="2">
+        <v>40360</v>
+      </c>
+      <c r="H102" s="2">
+        <v>41122</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>41.546619999999997</v>
+      </c>
+      <c r="D103">
+        <v>-115.82556</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>0.05</v>
+      </c>
+      <c r="G103" s="2">
+        <v>40422</v>
+      </c>
+      <c r="H103" s="2">
+        <v>40422</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" s="2">
+        <v>34486</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>30.750730000000001</v>
+      </c>
+      <c r="D104">
+        <v>-98.694400000000002</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>3.65</v>
+      </c>
+      <c r="G104" s="2">
+        <v>40817</v>
+      </c>
+      <c r="H104" s="2">
+        <v>40817</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" s="2">
+        <v>34700</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>37.442950000000003</v>
+      </c>
+      <c r="D105">
+        <v>-82.065709999999996</v>
+      </c>
+      <c r="J105" s="2">
+        <v>34759</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>39.953040000000001</v>
+      </c>
+      <c r="D106">
+        <v>-76.117189999999994</v>
+      </c>
+      <c r="J106" s="2">
+        <v>33695</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>39.423319999999997</v>
+      </c>
+      <c r="D107">
+        <v>-75.23236</v>
+      </c>
+      <c r="J107" s="2">
+        <v>33298</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>30.646609999999999</v>
+      </c>
+      <c r="D108">
+        <v>-87.350440000000006</v>
+      </c>
+      <c r="J108" s="2">
+        <v>34335</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L108" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>28.882429999999999</v>
+      </c>
+      <c r="D109">
+        <v>-81.601100000000002</v>
+      </c>
+      <c r="J109" s="2">
+        <v>34731</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>27.27956</v>
+      </c>
+      <c r="D110">
+        <v>-80.365340000000003</v>
+      </c>
+      <c r="J110" s="2">
+        <v>34394</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>39.781379999999999</v>
+      </c>
+      <c r="D111">
+        <v>-77.659760000000006</v>
+      </c>
+      <c r="J111" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>39.427160000000001</v>
+      </c>
+      <c r="D112">
+        <v>-87.415980000000005</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>3.17</v>
+      </c>
+      <c r="G112" s="2">
+        <v>41883</v>
+      </c>
+      <c r="H112" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" s="2">
+        <v>35827</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>39.860930000000003</v>
+      </c>
+      <c r="D113">
+        <v>-77.30171</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>0.2</v>
+      </c>
+      <c r="G113" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <v>33.642789999999998</v>
+      </c>
+      <c r="D114">
+        <v>-79.095299999999995</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>0.01</v>
+      </c>
+      <c r="G114" s="2">
+        <v>40603</v>
+      </c>
+      <c r="H114" s="2">
+        <v>40603</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2">
+        <v>34366</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L114" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>32.579439999999998</v>
+      </c>
+      <c r="D115">
+        <v>-96.803210000000007</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G115" s="2">
+        <v>42064</v>
+      </c>
+      <c r="H115" s="2">
+        <v>42339</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2">
+        <v>34731</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>34.723669999999998</v>
+      </c>
+      <c r="D116">
+        <v>-79.667739999999995</v>
+      </c>
+      <c r="J116" s="2">
+        <v>37773</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>36.400069999999999</v>
+      </c>
+      <c r="D117">
+        <v>-83.726330000000004</v>
+      </c>
+      <c r="J117" s="2">
+        <v>35490</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>35.756129999999999</v>
+      </c>
+      <c r="D118">
+        <v>-87.41619</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>1.53</v>
+      </c>
+      <c r="G118" s="2">
+        <v>41548</v>
+      </c>
+      <c r="H118" s="2">
+        <v>41548</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" s="2">
+        <v>35462</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>33.714860000000002</v>
+      </c>
+      <c r="D119">
+        <v>-90.639179999999996</v>
+      </c>
+      <c r="J119" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>30.40457</v>
+      </c>
+      <c r="D120">
+        <v>-89.657690000000002</v>
+      </c>
+      <c r="J120" s="2">
+        <v>32782</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>39.90643</v>
+      </c>
+      <c r="D121">
+        <v>-77.380009999999999</v>
+      </c>
+      <c r="J121" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>40.008150000000001</v>
+      </c>
+      <c r="D122">
+        <v>-79.635660000000001</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>3.3</v>
+      </c>
+      <c r="G122" s="2">
+        <v>39722</v>
+      </c>
+      <c r="H122" s="2">
+        <v>41000</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>30.23912</v>
+      </c>
+      <c r="D123">
+        <v>-87.749679999999998</v>
+      </c>
+      <c r="J123" s="2">
+        <v>33604</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>40.006100000000004</v>
+      </c>
+      <c r="D124">
+        <v>-86.104749999999996</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>56.91</v>
+      </c>
+      <c r="G124" s="2">
+        <v>41122</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L124" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>30.49436</v>
+      </c>
+      <c r="D125">
+        <v>-89.401700000000005</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>2.17</v>
+      </c>
+      <c r="G125" s="2">
+        <v>41579</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <v>35431</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>236</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>39.718670000000003</v>
+      </c>
+      <c r="D126">
+        <v>-86.399500000000003</v>
+      </c>
+      <c r="J126" s="2">
+        <v>35886</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>32.700600000000001</v>
+      </c>
+      <c r="D127">
+        <v>-116.3639</v>
+      </c>
+      <c r="J127" s="2">
+        <v>34455</v>
+      </c>
+      <c r="K127" s="2">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>38.626240000000003</v>
+      </c>
+      <c r="D128">
+        <v>-86.080939999999998</v>
+      </c>
+      <c r="J128" s="2">
+        <v>35855</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>40.769100000000002</v>
+      </c>
+      <c r="D129">
+        <v>-79.622200000000007</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>0.75</v>
+      </c>
+      <c r="G129" s="2">
+        <v>40360</v>
+      </c>
+      <c r="H129" s="2">
+        <v>40360</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>35.21678</v>
+      </c>
+      <c r="D130">
+        <v>-90.031530000000004</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G130" s="2">
+        <v>41730</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
+        <v>35431</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>40.015230000000003</v>
+      </c>
+      <c r="D131">
+        <v>-76.001379999999997</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>0.73</v>
+      </c>
+      <c r="G131" s="2">
+        <v>41153</v>
+      </c>
+      <c r="H131" s="2">
+        <v>42248</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>33695</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>39.143940000000001</v>
+      </c>
+      <c r="D132">
+        <v>-84.006069999999994</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>10.76</v>
+      </c>
+      <c r="G132" s="2">
+        <v>42186</v>
+      </c>
+      <c r="H132" s="2">
+        <v>42186</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2">
+        <v>34394</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>243</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>39.685699999999997</v>
+      </c>
+      <c r="D133">
+        <v>-75.503860000000003</v>
+      </c>
+      <c r="J133" s="2">
+        <v>33298</v>
+      </c>
+      <c r="K133" s="2">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>33.392040000000001</v>
+      </c>
+      <c r="D134">
+        <v>-111.67744999999999</v>
+      </c>
+      <c r="J134" s="2">
+        <v>33786</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>40.491149999999998</v>
+      </c>
+      <c r="D135">
+        <v>-79.849149999999995</v>
+      </c>
+      <c r="J135" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" s="5">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>30.546199999999999</v>
+      </c>
+      <c r="D136">
+        <v>-87.087130000000002</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>1.38</v>
+      </c>
+      <c r="G136" s="2">
+        <v>40513</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <v>34335</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>38.064399999999999</v>
+      </c>
+      <c r="D137">
+        <v>-79.349299999999999</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>0.53</v>
+      </c>
+      <c r="G137" s="2">
+        <v>40634</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>34.974910000000001</v>
+      </c>
+      <c r="D138">
+        <v>-90.039850000000001</v>
+      </c>
+      <c r="J138" s="2">
+        <v>35125</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>249</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>34.126280000000001</v>
+      </c>
+      <c r="D139">
+        <v>-83.740939999999995</v>
+      </c>
+      <c r="J139" s="2">
+        <v>33970</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>39.997149999999998</v>
+      </c>
+      <c r="D140">
+        <v>-79.463409999999996</v>
+      </c>
+      <c r="J140" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>30.479970000000002</v>
+      </c>
+      <c r="D141">
+        <v>-86.193950000000001</v>
+      </c>
+      <c r="J141" s="2">
+        <v>34335</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>27.524480000000001</v>
+      </c>
+      <c r="D142">
+        <v>-82.611580000000004</v>
+      </c>
+      <c r="J142" s="2">
+        <v>34366</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>42.179830000000003</v>
+      </c>
+      <c r="D143">
+        <v>-79.815730000000002</v>
+      </c>
+      <c r="J143" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>34.137210000000003</v>
+      </c>
+      <c r="D144">
+        <v>-86.197149999999993</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>0.04</v>
+      </c>
+      <c r="G144" s="2">
+        <v>41214</v>
+      </c>
+      <c r="H144" s="2">
+        <v>41214</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" s="2">
+        <v>35490</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" s="5">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>30.448640000000001</v>
+      </c>
+      <c r="D145">
+        <v>-89.028880000000001</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G145" s="2">
+        <v>42005</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2">
+        <v>33635</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>26.97767</v>
+      </c>
+      <c r="D146">
+        <v>-80.427229999999994</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>0.15</v>
+      </c>
+      <c r="G146" s="2">
+        <v>41640</v>
+      </c>
+      <c r="H146" s="2">
+        <v>41640</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2">
+        <v>34394</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>257</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>30.412299999999998</v>
+      </c>
+      <c r="D147">
+        <v>-88.802670000000006</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G147" s="2">
+        <v>42005</v>
+      </c>
+      <c r="H147" s="2">
+        <v>42005</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" s="2">
+        <v>33635</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>258</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>48.741759999999999</v>
+      </c>
+      <c r="D148">
+        <v>-116.84327999999999</v>
+      </c>
+      <c r="J148" s="2">
+        <v>36008</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L148" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>259</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>33.032380000000003</v>
+      </c>
+      <c r="D149">
+        <v>-96.666319999999999</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>0.17</v>
+      </c>
+      <c r="G149" s="2">
+        <v>41122</v>
+      </c>
+      <c r="H149" s="2">
+        <v>41548</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" s="2">
+        <v>34759</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>260</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>39.921559999999999</v>
+      </c>
+      <c r="D150">
+        <v>-78.787419999999997</v>
+      </c>
+      <c r="J150" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K150" s="2">
+        <v>41518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B151" s="5">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>41.414670000000001</v>
+      </c>
+      <c r="D151">
+        <v>-81.660759999999996</v>
+      </c>
+      <c r="J151" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" s="5">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>36.7121</v>
+      </c>
+      <c r="D152">
+        <v>-96.664869999999993</v>
+      </c>
+      <c r="J152" s="2">
+        <v>34731</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>263</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>34.035829999999997</v>
+      </c>
+      <c r="D153">
+        <v>-78.060289999999995</v>
+      </c>
+      <c r="J153" s="2">
+        <v>34001</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>264</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>40.571390000000001</v>
+      </c>
+      <c r="D154">
+        <v>-79.342280000000002</v>
+      </c>
+      <c r="J154" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L154" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>265</v>
+      </c>
+      <c r="C155">
+        <v>48.78107</v>
+      </c>
+      <c r="D155">
+        <v>-116.41238</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L155" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>33.863460000000003</v>
+      </c>
+      <c r="D156">
+        <v>-81.986720000000005</v>
+      </c>
+      <c r="J156" s="2">
+        <v>34366</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>39.874000000000002</v>
+      </c>
+      <c r="D157">
+        <v>-75.652510000000007</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>7.72</v>
+      </c>
+      <c r="G157" s="2">
+        <v>40695</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" s="5">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>36.35107</v>
+      </c>
+      <c r="D158">
+        <v>-88.332719999999995</v>
+      </c>
+      <c r="J158" s="2">
+        <v>35462</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" s="5">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>40.968730000000001</v>
+      </c>
+      <c r="D159">
+        <v>-74.527289999999994</v>
+      </c>
+      <c r="J159" s="2">
+        <v>33298</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>40.184899999999999</v>
+      </c>
+      <c r="D160">
+        <v>-80.259770000000003</v>
+      </c>
+      <c r="J160" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>271</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>42.783340000000003</v>
+      </c>
+      <c r="D161">
+        <v>-96.916349999999994</v>
+      </c>
+      <c r="J161" s="2">
+        <v>37956</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>40.654319999999998</v>
+      </c>
+      <c r="D162">
+        <v>-75.506590000000003</v>
+      </c>
+      <c r="J162" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" s="5">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>30.091190000000001</v>
+      </c>
+      <c r="D163">
+        <v>-84.530649999999994</v>
+      </c>
+      <c r="J163" s="2">
+        <v>34394</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>39.931449999999998</v>
+      </c>
+      <c r="D164">
+        <v>-78.996359999999996</v>
+      </c>
+      <c r="J164" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>275</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>39.865749999999998</v>
+      </c>
+      <c r="D165">
+        <v>-75.516800000000003</v>
+      </c>
+      <c r="J165" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K165" s="2">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>276</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>41.052149999999997</v>
+      </c>
+      <c r="D166">
+        <v>-75.079570000000004</v>
+      </c>
+      <c r="J166" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L166" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>35.542169999999999</v>
+      </c>
+      <c r="D167">
+        <v>-79.894130000000004</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>0.02</v>
+      </c>
+      <c r="G167" s="2">
+        <v>41306</v>
+      </c>
+      <c r="H167" s="2">
+        <v>41306</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" s="2">
+        <v>34001</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>31.42483</v>
+      </c>
+      <c r="D168">
+        <v>-89.546930000000003</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G168" s="2">
+        <v>41579</v>
+      </c>
+      <c r="H168" s="2">
+        <v>41579</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" s="2">
+        <v>35065</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>279</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>39.762999999999998</v>
+      </c>
+      <c r="D169">
+        <v>-86.503690000000006</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>0.31</v>
+      </c>
+      <c r="G169" s="2">
+        <v>40299</v>
+      </c>
+      <c r="H169" s="2">
+        <v>40299</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2">
+        <v>35886</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>280</v>
+      </c>
+      <c r="B170" s="5">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>40.027619999999999</v>
+      </c>
+      <c r="D170">
+        <v>-79.554019999999994</v>
+      </c>
+      <c r="J170" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>281</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>40.413710000000002</v>
+      </c>
+      <c r="D171">
+        <v>-79.287490000000005</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>0.16</v>
+      </c>
+      <c r="G171" s="2">
+        <v>40422</v>
+      </c>
+      <c r="H171" s="2">
+        <v>40817</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" s="2">
+        <v>34060</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>282</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>32.916069999999998</v>
+      </c>
+      <c r="D172">
+        <v>-90.876040000000003</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>1.89</v>
+      </c>
+      <c r="G172" s="2">
+        <v>41183</v>
+      </c>
+      <c r="H172" s="2">
+        <v>41183</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2">
+        <v>35096</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>283</v>
+      </c>
+      <c r="B173" s="5">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>26.18534</v>
+      </c>
+      <c r="D173">
+        <v>-97.706649999999996</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>0.05</v>
+      </c>
+      <c r="G173" s="2">
+        <v>40544</v>
+      </c>
+      <c r="H173" s="2">
+        <v>40544</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" s="2">
+        <v>18598</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>33.483800000000002</v>
+      </c>
+      <c r="D174">
+        <v>-88.915019999999998</v>
+      </c>
+      <c r="J174" s="2">
+        <v>35125</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>285</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>30.777539999999998</v>
+      </c>
+      <c r="D175">
+        <v>-81.626840000000001</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>19.25</v>
+      </c>
+      <c r="G175" s="2">
+        <v>40513</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2">
+        <v>32174</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L175" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>286</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>40.246740000000003</v>
+      </c>
+      <c r="D176">
+        <v>-76.00076</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>0.3</v>
+      </c>
+      <c r="G176" s="2">
+        <v>41153</v>
+      </c>
+      <c r="H176" s="2">
+        <v>41153</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" s="2">
+        <v>33695</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>287</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>34.98603</v>
+      </c>
+      <c r="D177">
+        <v>-119.34249</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177">
+        <v>1.75</v>
+      </c>
+      <c r="G177" s="2">
+        <v>40634</v>
+      </c>
+      <c r="H177" s="2">
+        <v>41122</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" s="2">
+        <v>34455</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>288</v>
+      </c>
+      <c r="B178" s="5">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>40.268279999999997</v>
+      </c>
+      <c r="D178">
+        <v>-75.250050000000002</v>
+      </c>
+      <c r="J178" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K178" s="2">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>289</v>
+      </c>
+      <c r="B179" s="5">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>40.338729999999998</v>
+      </c>
+      <c r="D179">
+        <v>-75.549180000000007</v>
+      </c>
+      <c r="J179" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>290</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>39.966419999999999</v>
+      </c>
+      <c r="D180">
+        <v>-75.508570000000006</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <v>0.42</v>
+      </c>
+      <c r="G180" s="2">
+        <v>40817</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2">
+        <v>33664</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>291</v>
+      </c>
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>40.866050000000001</v>
+      </c>
+      <c r="D181">
+        <v>-77.778549999999996</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181">
+        <v>2.14</v>
+      </c>
+      <c r="G181" s="2">
+        <v>42248</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2">
+        <v>34425</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>292</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>38.41545</v>
+      </c>
+      <c r="D182">
+        <v>-122.80723</v>
+      </c>
+      <c r="J182" s="2">
+        <v>34121</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>293</v>
+      </c>
+      <c r="B183" s="5">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>36.094769999999997</v>
+      </c>
+      <c r="D183">
+        <v>-86.654300000000006</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>0.97</v>
+      </c>
+      <c r="G183" s="2">
+        <v>41730</v>
+      </c>
+      <c r="H183" s="2">
+        <v>42248</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" s="2">
+        <v>36192</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
